--- a/biology/Zoologie/Atrichorne_bruyant/Atrichorne_bruyant.xlsx
+++ b/biology/Zoologie/Atrichorne_bruyant/Atrichorne_bruyant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Atrichorne bruyant (Atrichornis clamosus) est une espèce d'oiseau de la famille des Atrichornithidae endémique d'Australie. Il a longtemps été cru disparu avant d'être retrouvé dans les années 1960 dans la région de la baie des deux peuples (en)[1], au sud de l'Australie-Occidentale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Atrichorne bruyant (Atrichornis clamosus) est une espèce d'oiseau de la famille des Atrichornithidae endémique d'Australie. Il a longtemps été cru disparu avant d'être retrouvé dans les années 1960 dans la région de la baie des deux peuples (en), au sud de l'Australie-Occidentale.
 En 1962, l'effectif total des atrichornes bruyants était estimé entre 40 et 45 individus. Des mesures de conservation ont permis un net accroissement de la population, qui a atteint 400 oiseaux au milieu des années 1980. L'espèce a alors pu être réintroduite dans de nombreux sites, mais demeure menacée.
 </t>
         </is>
